--- a/Textbook Companion/Chapter52/Practice Files/Bandchart.xlsx
+++ b/Textbook Companion/Chapter52/Practice Files/Bandchart.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="14352" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="band" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -154,7 +154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -264,6 +263,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3F3-4B0F-A2A2-5E608C500C28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -341,6 +345,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3F3-4B0F-A2A2-5E608C500C28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -436,6 +445,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3F3-4B0F-A2A2-5E608C500C28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -600,7 +614,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -668,7 +681,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -712,23 +725,12 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -820,6 +822,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5230-4E67-9531-CF63608F95DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -879,6 +886,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5230-4E67-9531-CF63608F95DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -956,6 +968,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5230-4E67-9531-CF63608F95DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1120,7 +1137,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1153,6 +1169,1035 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>My</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Band Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>band!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>band!$B$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>band!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8010-4DCA-BA96-F6DE778902C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>band!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>band!$B$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>band!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8010-4DCA-BA96-F6DE778902C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="428799704"/>
+        <c:axId val="428797408"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>band!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>band!$B$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>band!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8010-4DCA-BA96-F6DE778902C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="428799704"/>
+        <c:axId val="428797408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="428799704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428797408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428797408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428799704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>My Band</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart Created from Template</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>band!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>band!$B$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>band!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8010-4DCA-BA96-F6DE778902C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>band!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>band!$B$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>band!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8010-4DCA-BA96-F6DE778902C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="428799704"/>
+        <c:axId val="428797408"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>band!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>band!$B$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>band!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8010-4DCA-BA96-F6DE778902C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="428799704"/>
+        <c:axId val="428797408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="428799704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428797408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428797408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428799704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1267,6 +2312,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -1789,6 +2914,1048 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2326,7 +4493,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2356,7 +4529,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2366,6 +4545,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCEE3B70-9879-4CEC-8989-1A767069FC7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F3B6D5-5BB6-42A6-97EA-07DB9619BC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2450,6 +4701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2485,6 +4753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2940,24 +5225,339 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D7"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2968,7 +5568,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +5581,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +5594,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -3015,7 +5615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +5644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +5699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
